--- a/media/SLICE/MIS/FEB 22/SLICE ALLOCATION 27 FEB 22.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE ALLOCATION 27 FEB 22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohaksehgal/Documents/Work/MIS/SLICE/FEB 22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A55F27-24A1-9648-A6E5-FC4A12A3DDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63C5E53-59D7-F64F-A51A-5FC4C3740E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{D46C508E-CD26-0840-B7AD-6918675B7600}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$396</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1219">
   <si>
     <t>8db02f20-4319-11ec-9f10-4da9da45f84f</t>
   </si>
@@ -2614,9 +2614,6 @@
     <t>VIKASH DARA</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>DADRA</t>
   </si>
   <si>
@@ -3659,6 +3656,42 @@
   </si>
   <si>
     <t>S/O Shyam Sundar,Ballia,Sahatwar,Uttar Pradesh,India,277211,</t>
+  </si>
+  <si>
+    <t>ANIL KUMAR PANDIT</t>
+  </si>
+  <si>
+    <t>BEENESH</t>
+  </si>
+  <si>
+    <t>MANOJ TOMAR</t>
+  </si>
+  <si>
+    <t>SHAKEEL</t>
+  </si>
+  <si>
+    <t>SURESH</t>
+  </si>
+  <si>
+    <t>RAJENDER KUMAR VERMA</t>
+  </si>
+  <si>
+    <t>SUKHVINDER SINGH</t>
+  </si>
+  <si>
+    <t>SUBHASH CHAND</t>
+  </si>
+  <si>
+    <t>GURPREET SINGH</t>
+  </si>
+  <si>
+    <t>NO FOS</t>
+  </si>
+  <si>
+    <t>GIRJESH KUMAR</t>
+  </si>
+  <si>
+    <t>PRAMOD-JAIPUR</t>
   </si>
 </sst>
 </file>
@@ -4079,8 +4112,8 @@
   <dimension ref="A1:J396"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="A1:J396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4142,13 +4175,13 @@
         <v>80886</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J2" s="2">
         <v>301019</v>
@@ -4174,7 +4207,7 @@
         <v>176540</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>129</v>
@@ -4206,13 +4239,13 @@
         <v>38434</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J4" s="2">
         <v>110030</v>
@@ -4238,7 +4271,7 @@
         <v>345558</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>131</v>
@@ -4270,7 +4303,7 @@
         <v>338790</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>246</v>
@@ -4302,13 +4335,13 @@
         <v>30294</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J7" s="2">
         <v>209625</v>
@@ -4334,7 +4367,7 @@
         <v>239996</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>131</v>
@@ -4366,13 +4399,13 @@
         <v>22348</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>860</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J9" s="2">
         <v>201308</v>
@@ -4398,13 +4431,13 @@
         <v>121404</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J10" s="2">
         <v>302021</v>
@@ -4430,7 +4463,7 @@
         <v>20701</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>131</v>
@@ -4462,7 +4495,7 @@
         <v>141743</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>131</v>
@@ -4494,7 +4527,7 @@
         <v>27644</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>131</v>
@@ -4526,13 +4559,13 @@
         <v>124985</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J14" s="2">
         <v>110067</v>
@@ -4558,7 +4591,7 @@
         <v>120990</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>131</v>
@@ -4590,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J16" s="2">
         <v>304022</v>
@@ -4622,7 +4655,7 @@
         <v>10376</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>131</v>
@@ -4654,13 +4687,13 @@
         <v>112587</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J18" s="2">
         <v>248001</v>
@@ -4686,7 +4719,7 @@
         <v>16380</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>131</v>
@@ -4718,13 +4751,13 @@
         <v>22192</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J20" s="2">
         <v>201310</v>
@@ -4750,13 +4783,13 @@
         <v>56986</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J21" s="2">
         <v>202001</v>
@@ -4782,13 +4815,13 @@
         <v>11059</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J22" s="2">
         <v>110019</v>
@@ -4814,13 +4847,13 @@
         <v>101260</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J23" s="2">
         <v>302012</v>
@@ -4846,13 +4879,13 @@
         <v>99359</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J24" s="2">
         <v>201310</v>
@@ -4878,13 +4911,13 @@
         <v>55280</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J25" s="2">
         <v>201306</v>
@@ -4910,13 +4943,13 @@
         <v>33276</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J26" s="2">
         <v>271881</v>
@@ -4942,13 +4975,13 @@
         <v>46907</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J27" s="2">
         <v>110042</v>
@@ -4974,13 +5007,13 @@
         <v>35468</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J28" s="2">
         <v>201308</v>
@@ -5006,7 +5039,7 @@
         <v>27847</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>131</v>
@@ -5038,13 +5071,13 @@
         <v>43150</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J30" s="2">
         <v>228001</v>
@@ -5070,13 +5103,13 @@
         <v>27441</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J31" s="2">
         <v>302018</v>
@@ -5102,7 +5135,7 @@
         <v>95000</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>131</v>
@@ -5134,13 +5167,13 @@
         <v>10313</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J33" s="2">
         <v>244001</v>
@@ -5166,13 +5199,13 @@
         <v>61271</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J34" s="2">
         <v>335804</v>
@@ -5198,13 +5231,13 @@
         <v>16208</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>859</v>
+        <v>1211</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J35" s="2">
         <v>208024</v>
@@ -5230,13 +5263,13 @@
         <v>54296</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J36" s="2">
         <v>110044</v>
@@ -5262,13 +5295,13 @@
         <v>82388</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J37" s="2">
         <v>110025</v>
@@ -5294,13 +5327,13 @@
         <v>23849</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J38" s="2">
         <v>250004</v>
@@ -5326,13 +5359,13 @@
         <v>83348</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J39" s="2">
         <v>110092</v>
@@ -5358,13 +5391,13 @@
         <v>7069</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J40" s="2">
         <v>207246</v>
@@ -5390,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J41" s="2">
         <v>124201</v>
@@ -5422,13 +5455,13 @@
         <v>8621</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J42" s="2">
         <v>244924</v>
@@ -5454,13 +5487,13 @@
         <v>79941</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J43" s="2">
         <v>110010</v>
@@ -5486,7 +5519,7 @@
         <v>21259</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>131</v>
@@ -5518,13 +5551,13 @@
         <v>30106</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J45" s="2">
         <v>110034</v>
@@ -5550,13 +5583,13 @@
         <v>29977</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J46" s="2">
         <v>201306</v>
@@ -5582,7 +5615,7 @@
         <v>22735</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>129</v>
@@ -5614,13 +5647,13 @@
         <v>16455</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J48" s="2">
         <v>203131</v>
@@ -5646,7 +5679,7 @@
         <v>16254</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>129</v>
@@ -5678,13 +5711,13 @@
         <v>14039</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J50" s="2">
         <v>110037</v>
@@ -5710,13 +5743,13 @@
         <v>23966</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J51" s="2">
         <v>303328</v>
@@ -5742,13 +5775,13 @@
         <v>13370</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J52" s="2">
         <v>110070</v>
@@ -5774,13 +5807,13 @@
         <v>25784</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J53" s="2">
         <v>201306</v>
@@ -5806,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J54" s="2">
         <v>226102</v>
@@ -5838,13 +5871,13 @@
         <v>22421</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J55" s="2">
         <v>110016</v>
@@ -5870,13 +5903,13 @@
         <v>20590</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J56" s="2">
         <v>121102</v>
@@ -5902,13 +5935,13 @@
         <v>6511</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J57" s="2">
         <v>303508</v>
@@ -5934,7 +5967,7 @@
         <v>39300</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>131</v>
@@ -5966,13 +5999,13 @@
         <v>39097</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J59" s="2">
         <v>341303</v>
@@ -5998,13 +6031,13 @@
         <v>47705</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J60" s="2">
         <v>250404</v>
@@ -6030,13 +6063,13 @@
         <v>26936</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>859</v>
+        <v>1212</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J61" s="2">
         <v>110047</v>
@@ -6062,7 +6095,7 @@
         <v>16644</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>859</v>
+        <v>1217</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>131</v>
@@ -6094,13 +6127,13 @@
         <v>19577</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J63" s="2">
         <v>271122</v>
@@ -6126,13 +6159,13 @@
         <v>20497</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J64" s="2">
         <v>230130</v>
@@ -6158,7 +6191,7 @@
         <v>18778</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>129</v>
@@ -6190,13 +6223,13 @@
         <v>77468</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J66" s="2">
         <v>110067</v>
@@ -6222,13 +6255,13 @@
         <v>74740</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J67" s="2">
         <v>342001</v>
@@ -6254,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J68" s="2">
         <v>224207</v>
@@ -6286,13 +6319,13 @@
         <v>16463</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J69" s="2">
         <v>202001</v>
@@ -6318,13 +6351,13 @@
         <v>9750</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J70" s="2">
         <v>201102</v>
@@ -6350,13 +6383,13 @@
         <v>74320</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J71" s="2">
         <v>272131</v>
@@ -6382,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J72" s="2">
         <v>303602</v>
@@ -6414,13 +6447,13 @@
         <v>16496</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J73" s="2">
         <v>211004</v>
@@ -6446,13 +6479,13 @@
         <v>27871</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J74" s="2">
         <v>341031</v>
@@ -6478,13 +6511,13 @@
         <v>34990</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J75" s="2">
         <v>245205</v>
@@ -6510,13 +6543,13 @@
         <v>3074</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J76" s="2">
         <v>226023</v>
@@ -6542,13 +6575,13 @@
         <v>52908</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>221</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J77" s="2">
         <v>180001</v>
@@ -6574,13 +6607,13 @@
         <v>13474</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J78" s="2">
         <v>250001</v>
@@ -6606,13 +6639,13 @@
         <v>27475</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J79" s="2">
         <v>302017</v>
@@ -6638,13 +6671,13 @@
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J80" s="2">
         <v>302019</v>
@@ -6670,7 +6703,7 @@
         <v>10628</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>131</v>
@@ -6702,7 +6735,7 @@
         <v>16911</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>131</v>
@@ -6734,13 +6767,13 @@
         <v>7273</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J83" s="2">
         <v>209217</v>
@@ -6766,13 +6799,13 @@
         <v>51839</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J84" s="2">
         <v>306302</v>
@@ -6798,13 +6831,13 @@
         <v>3725</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J85" s="2">
         <v>121102</v>
@@ -6830,13 +6863,13 @@
         <v>7908</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J86" s="2">
         <v>560064</v>
@@ -6862,7 +6895,7 @@
         <v>12904</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>131</v>
@@ -6894,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J88" s="2">
         <v>302039</v>
@@ -6926,13 +6959,13 @@
         <v>14317</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J89" s="2">
         <v>302021</v>
@@ -6958,13 +6991,13 @@
         <v>60000</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J90" s="2">
         <v>306501</v>
@@ -6990,13 +7023,13 @@
         <v>10554</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J91" s="2">
         <v>110019</v>
@@ -7022,13 +7055,13 @@
         <v>6164</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J92" s="2">
         <v>827013</v>
@@ -7054,13 +7087,13 @@
         <v>16788</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J93" s="2">
         <v>302001</v>
@@ -7086,13 +7119,13 @@
         <v>44374</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J94" s="2">
         <v>122015</v>
@@ -7118,13 +7151,13 @@
         <v>10490</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J95" s="2">
         <v>242001</v>
@@ -7150,7 +7183,7 @@
         <v>10269</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>131</v>
@@ -7182,13 +7215,13 @@
         <v>19743</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J97" s="2">
         <v>122001</v>
@@ -7214,7 +7247,7 @@
         <v>55949</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>131</v>
@@ -7246,7 +7279,7 @@
         <v>20338</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>131</v>
@@ -7278,13 +7311,13 @@
         <v>4728</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J100" s="2">
         <v>110096</v>
@@ -7310,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J101" s="2">
         <v>302029</v>
@@ -7342,13 +7375,13 @@
         <v>7026</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J102" s="2">
         <v>122002</v>
@@ -7374,13 +7407,13 @@
         <v>8279</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>859</v>
+        <v>1211</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J103" s="2">
         <v>110092</v>
@@ -7406,7 +7439,7 @@
         <v>3960</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>131</v>
@@ -7438,7 +7471,7 @@
         <v>51956</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>131</v>
@@ -7470,13 +7503,13 @@
         <v>52014</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J106" s="2">
         <v>122503</v>
@@ -7502,13 +7535,13 @@
         <v>46763</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J107" s="2">
         <v>332403</v>
@@ -7534,13 +7567,13 @@
         <v>100</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J108" s="2">
         <v>221601</v>
@@ -7566,13 +7599,13 @@
         <v>10270</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J109" s="2">
         <v>247451</v>
@@ -7598,13 +7631,13 @@
         <v>14238</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J110" s="2">
         <v>122103</v>
@@ -7630,13 +7663,13 @@
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J111" s="2">
         <v>121001</v>
@@ -7662,13 +7695,13 @@
         <v>6792</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J112" s="2">
         <v>122010</v>
@@ -7694,13 +7727,13 @@
         <v>13055</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J113" s="2">
         <v>302012</v>
@@ -7726,13 +7759,13 @@
         <v>15439</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J114" s="2">
         <v>110037</v>
@@ -7758,13 +7791,13 @@
         <v>8588</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J115" s="2">
         <v>302004</v>
@@ -7790,7 +7823,7 @@
         <v>30964</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>131</v>
@@ -7822,13 +7855,13 @@
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J117" s="2">
         <v>247001</v>
@@ -7854,13 +7887,13 @@
         <v>18031</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J118" s="2">
         <v>301701</v>
@@ -7886,7 +7919,7 @@
         <v>14726</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>131</v>
@@ -7918,13 +7951,13 @@
         <v>10545</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J120" s="2">
         <v>110091</v>
@@ -7950,7 +7983,7 @@
         <v>44872</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>246</v>
@@ -7982,13 +8015,13 @@
         <v>10103</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J122" s="2">
         <v>110064</v>
@@ -8014,13 +8047,13 @@
         <v>24061</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J123" s="2">
         <v>302019</v>
@@ -8046,13 +8079,13 @@
         <v>7145</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J124" s="2">
         <v>110037</v>
@@ -8078,13 +8111,13 @@
         <v>4542</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J125" s="2">
         <v>323024</v>
@@ -8110,7 +8143,7 @@
         <v>10520</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>246</v>
@@ -8142,7 +8175,7 @@
         <v>8306</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>246</v>
@@ -8174,13 +8207,13 @@
         <v>2968</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J128" s="2">
         <v>121004</v>
@@ -8206,13 +8239,13 @@
         <v>6293</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J129" s="2">
         <v>302017</v>
@@ -8238,13 +8271,13 @@
         <v>5856</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J130" s="2">
         <v>201003</v>
@@ -8270,13 +8303,13 @@
         <v>4286</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J131" s="2">
         <v>122051</v>
@@ -8302,13 +8335,13 @@
         <v>5405</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J132" s="2">
         <v>203205</v>
@@ -8334,13 +8367,13 @@
         <v>4974</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J133" s="2">
         <v>263160</v>
@@ -8366,13 +8399,13 @@
         <v>0</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J134" s="2">
         <v>311024</v>
@@ -8398,7 +8431,7 @@
         <v>7766</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>246</v>
@@ -8430,7 +8463,7 @@
         <v>41000</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>246</v>
@@ -8462,13 +8495,13 @@
         <v>34006</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J137" s="2">
         <v>303704</v>
@@ -8494,13 +8527,13 @@
         <v>6388</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J138" s="2">
         <v>302012</v>
@@ -8526,13 +8559,13 @@
         <v>35360</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J139" s="2">
         <v>332301</v>
@@ -8558,7 +8591,7 @@
         <v>40996</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>131</v>
@@ -8590,7 +8623,7 @@
         <v>40995</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>246</v>
@@ -8622,13 +8655,13 @@
         <v>8359</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J142" s="2">
         <v>201102</v>
@@ -8654,13 +8687,13 @@
         <v>3399</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J143" s="2">
         <v>110044</v>
@@ -8686,7 +8719,7 @@
         <v>41000</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>131</v>
@@ -8718,13 +8751,13 @@
         <v>24950</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J145" s="2">
         <v>173027</v>
@@ -8750,13 +8783,13 @@
         <v>10143</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J146" s="2">
         <v>201001</v>
@@ -8782,13 +8815,13 @@
         <v>41669</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J147" s="2">
         <v>325004</v>
@@ -8814,13 +8847,13 @@
         <v>21348</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J148" s="2">
         <v>332601</v>
@@ -8846,7 +8879,7 @@
         <v>34327</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>129</v>
@@ -8878,7 +8911,7 @@
         <v>40963</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>131</v>
@@ -8910,7 +8943,7 @@
         <v>24229</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>130</v>
@@ -8942,13 +8975,13 @@
         <v>40920</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J152" s="2">
         <v>303102</v>
@@ -8974,7 +9007,7 @@
         <v>21236</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>129</v>
@@ -9006,13 +9039,13 @@
         <v>17335</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J154" s="2">
         <v>322701</v>
@@ -9038,13 +9071,13 @@
         <v>8000</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J155" s="2">
         <v>306401</v>
@@ -9070,13 +9103,13 @@
         <v>3329</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J156" s="2">
         <v>332001</v>
@@ -9102,7 +9135,7 @@
         <v>40847</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>859</v>
+        <v>166</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>131</v>
@@ -9134,7 +9167,7 @@
         <v>25077</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>131</v>
@@ -9166,13 +9199,13 @@
         <v>2701</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J159" s="2">
         <v>302012</v>
@@ -9198,13 +9231,13 @@
         <v>0</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J160" s="2">
         <v>324005</v>
@@ -9230,13 +9263,13 @@
         <v>5075</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J161" s="2">
         <v>177220</v>
@@ -9262,13 +9295,13 @@
         <v>13504</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J162" s="2">
         <v>341023</v>
@@ -9294,13 +9327,13 @@
         <v>0</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J163" s="2">
         <v>303601</v>
@@ -9326,7 +9359,7 @@
         <v>16672</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>131</v>
@@ -9358,13 +9391,13 @@
         <v>40114</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>859</v>
+        <v>1215</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J165" s="2">
         <v>248001</v>
@@ -9390,13 +9423,13 @@
         <v>0</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J166" s="2">
         <v>201304</v>
@@ -9422,13 +9455,13 @@
         <v>26666</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J167" s="2">
         <v>305001</v>
@@ -9454,7 +9487,7 @@
         <v>39977</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>131</v>
@@ -9486,13 +9519,13 @@
         <v>14596</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J169" s="2">
         <v>172109</v>
@@ -9518,13 +9551,13 @@
         <v>3274</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J170" s="2">
         <v>302029</v>
@@ -9550,13 +9583,13 @@
         <v>23722</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J171" s="2">
         <v>333026</v>
@@ -9582,13 +9615,13 @@
         <v>3480</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J172" s="2">
         <v>201301</v>
@@ -9614,13 +9647,13 @@
         <v>2155</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J173" s="2">
         <v>302016</v>
@@ -9646,7 +9679,7 @@
         <v>39506</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>131</v>
@@ -9678,13 +9711,13 @@
         <v>10441</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J175" s="2">
         <v>396193</v>
@@ -9710,7 +9743,7 @@
         <v>9627</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>129</v>
@@ -9742,13 +9775,13 @@
         <v>32151</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J177" s="2">
         <v>232108</v>
@@ -9774,13 +9807,13 @@
         <v>9905</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>859</v>
+        <v>1212</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J178" s="2">
         <v>203207</v>
@@ -9806,13 +9839,13 @@
         <v>7186</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J179" s="2">
         <v>302024</v>
@@ -9838,13 +9871,13 @@
         <v>12999</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J180" s="2">
         <v>302006</v>
@@ -9870,13 +9903,13 @@
         <v>11568</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J181" s="2">
         <v>301019</v>
@@ -9902,13 +9935,13 @@
         <v>4324</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J182" s="2">
         <v>332317</v>
@@ -9934,13 +9967,13 @@
         <v>13061</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J183" s="2">
         <v>303303</v>
@@ -9966,13 +9999,13 @@
         <v>9364</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J184" s="2">
         <v>244713</v>
@@ -9998,13 +10031,13 @@
         <v>2950</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J185" s="2">
         <v>123106</v>
@@ -10030,13 +10063,13 @@
         <v>38849</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J186" s="2">
         <v>110026</v>
@@ -10062,13 +10095,13 @@
         <v>0</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J187" s="2">
         <v>325220</v>
@@ -10094,13 +10127,13 @@
         <v>38407</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J188" s="2">
         <v>334001</v>
@@ -10126,7 +10159,7 @@
         <v>38291</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>131</v>
@@ -10158,13 +10191,13 @@
         <v>14526</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J190" s="2">
         <v>302012</v>
@@ -10190,13 +10223,13 @@
         <v>2698</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J191" s="2">
         <v>302002</v>
@@ -10222,13 +10255,13 @@
         <v>14871</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J192" s="2">
         <v>302019</v>
@@ -10254,13 +10287,13 @@
         <v>5296</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J193" s="2">
         <v>301701</v>
@@ -10286,7 +10319,7 @@
         <v>11049</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>246</v>
@@ -10318,13 +10351,13 @@
         <v>32845</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J195" s="2">
         <v>301706</v>
@@ -10350,13 +10383,13 @@
         <v>6762</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J196" s="2">
         <v>132101</v>
@@ -10382,13 +10415,13 @@
         <v>0</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>859</v>
+        <v>166</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J197" s="2">
         <v>110040</v>
@@ -10414,13 +10447,13 @@
         <v>5634</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J198" s="2">
         <v>313001</v>
@@ -10446,7 +10479,7 @@
         <v>6088</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>131</v>
@@ -10478,13 +10511,13 @@
         <v>0</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J200" s="2">
         <v>110059</v>
@@ -10510,13 +10543,13 @@
         <v>17105</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J201" s="2">
         <v>302021</v>
@@ -10542,13 +10575,13 @@
         <v>1942</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J202" s="2">
         <v>201305</v>
@@ -10574,13 +10607,13 @@
         <v>7643</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J203" s="2">
         <v>122001</v>
@@ -10606,13 +10639,13 @@
         <v>2847</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J204" s="2">
         <v>110078</v>
@@ -10638,7 +10671,7 @@
         <v>13226</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>131</v>
@@ -10670,13 +10703,13 @@
         <v>0</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J206" s="2">
         <v>110086</v>
@@ -10702,13 +10735,13 @@
         <v>16876</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J207" s="2">
         <v>342037</v>
@@ -10734,7 +10767,7 @@
         <v>6782</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>129</v>
@@ -10766,7 +10799,7 @@
         <v>34740</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>131</v>
@@ -10798,13 +10831,13 @@
         <v>0</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J210" s="2">
         <v>263139</v>
@@ -10830,13 +10863,13 @@
         <v>4890</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J211" s="2">
         <v>201001</v>
@@ -10862,13 +10895,13 @@
         <v>6931</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J212" s="2">
         <v>110093</v>
@@ -10894,13 +10927,13 @@
         <v>33618</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J213" s="2">
         <v>201005</v>
@@ -10926,13 +10959,13 @@
         <v>16437</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J214" s="2">
         <v>201306</v>
@@ -10958,13 +10991,13 @@
         <v>5090</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J215" s="2">
         <v>110042</v>
@@ -10990,7 +11023,7 @@
         <v>31844</v>
       </c>
       <c r="G216" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>131</v>
@@ -11022,13 +11055,13 @@
         <v>5445</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J217" s="2">
         <v>263153</v>
@@ -11054,7 +11087,7 @@
         <v>10241</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>131</v>
@@ -11086,13 +11119,13 @@
         <v>8651</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J219" s="2">
         <v>208027</v>
@@ -11118,13 +11151,13 @@
         <v>2587</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J220" s="2">
         <v>203205</v>
@@ -11150,7 +11183,7 @@
         <v>20590</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>130</v>
@@ -11182,7 +11215,7 @@
         <v>7174</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>129</v>
@@ -11214,13 +11247,13 @@
         <v>15108</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J223" s="2">
         <v>110080</v>
@@ -11246,13 +11279,13 @@
         <v>0</v>
       </c>
       <c r="G224" s="5" t="s">
-        <v>859</v>
+        <v>1211</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J224" s="2">
         <v>121103</v>
@@ -11278,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J225" s="2">
         <v>302012</v>
@@ -11310,13 +11343,13 @@
         <v>0</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J226" s="2">
         <v>322201</v>
@@ -11342,7 +11375,7 @@
         <v>10530</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>129</v>
@@ -11374,13 +11407,13 @@
         <v>0</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J228" s="2">
         <v>302012</v>
@@ -11406,13 +11439,13 @@
         <v>29985</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J229" s="2">
         <v>134007</v>
@@ -11438,13 +11471,13 @@
         <v>5169</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J230" s="2">
         <v>110034</v>
@@ -11470,13 +11503,13 @@
         <v>25094</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J231" s="2">
         <v>301019</v>
@@ -11502,13 +11535,13 @@
         <v>5009</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>859</v>
+        <v>1215</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>221</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J232" s="2">
         <v>180004</v>
@@ -11534,13 +11567,13 @@
         <v>22589</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J233" s="2">
         <v>306401</v>
@@ -11566,13 +11599,13 @@
         <v>3805</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J234" s="2">
         <v>110092</v>
@@ -11598,13 +11631,13 @@
         <v>3177</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>859</v>
+        <v>1211</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J235" s="2">
         <v>121002</v>
@@ -11630,7 +11663,7 @@
         <v>6168</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>129</v>
@@ -11662,13 +11695,13 @@
         <v>26724</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J237" s="2">
         <v>302017</v>
@@ -11694,13 +11727,13 @@
         <v>21559</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J238" s="2">
         <v>110083</v>
@@ -11726,13 +11759,13 @@
         <v>10925</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J239" s="2">
         <v>331403</v>
@@ -11758,13 +11791,13 @@
         <v>0</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J240" s="2">
         <v>335051</v>
@@ -11790,13 +11823,13 @@
         <v>9833</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J241" s="2">
         <v>302003</v>
@@ -11822,7 +11855,7 @@
         <v>29292</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>129</v>
@@ -11854,13 +11887,13 @@
         <v>28983</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J243" s="2">
         <v>201007</v>
@@ -11886,13 +11919,13 @@
         <v>4981</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H244" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J244" s="2">
         <v>222125</v>
@@ -11918,13 +11951,13 @@
         <v>7097</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H245" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J245" s="2">
         <v>302033</v>
@@ -11950,13 +11983,13 @@
         <v>4516</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J246" s="2">
         <v>122503</v>
@@ -11982,13 +12015,13 @@
         <v>9143</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J247" s="2">
         <v>122009</v>
@@ -12014,13 +12047,13 @@
         <v>27809</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J248" s="2">
         <v>335041</v>
@@ -12046,13 +12079,13 @@
         <v>2749</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J249" s="2">
         <v>110092</v>
@@ -12078,7 +12111,7 @@
         <v>10194</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>129</v>
@@ -12110,13 +12143,13 @@
         <v>5284</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J251" s="2">
         <v>333028</v>
@@ -12142,13 +12175,13 @@
         <v>0</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J252" s="2">
         <v>122016</v>
@@ -12174,13 +12207,13 @@
         <v>11923</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J253" s="2">
         <v>110058</v>
@@ -12206,13 +12239,13 @@
         <v>3136</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J254" s="2">
         <v>328021</v>
@@ -12238,13 +12271,13 @@
         <v>24962</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J255" s="2">
         <v>311604</v>
@@ -12270,13 +12303,13 @@
         <v>0</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>221</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J256" s="2">
         <v>181221</v>
@@ -12302,13 +12335,13 @@
         <v>13233</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J257" s="2">
         <v>302004</v>
@@ -12334,13 +12367,13 @@
         <v>15818</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J258" s="2">
         <v>344001</v>
@@ -12366,13 +12399,13 @@
         <v>8431</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>859</v>
+        <v>1213</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J259" s="2">
         <v>110018</v>
@@ -12398,13 +12431,13 @@
         <v>4750</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>859</v>
+        <v>166</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J260" s="2">
         <v>110043</v>
@@ -12430,13 +12463,13 @@
         <v>15601</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J261" s="2">
         <v>303008</v>
@@ -12462,13 +12495,13 @@
         <v>25348</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J262" s="2">
         <v>263139</v>
@@ -12494,13 +12527,13 @@
         <v>3549</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J263" s="2">
         <v>302002</v>
@@ -12526,13 +12559,13 @@
         <v>7626</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J264" s="2">
         <v>302020</v>
@@ -12558,13 +12591,13 @@
         <v>2697</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J265" s="2">
         <v>221007</v>
@@ -12590,13 +12623,13 @@
         <v>2676</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J266" s="2">
         <v>110044</v>
@@ -12622,13 +12655,13 @@
         <v>5156</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J267" s="2">
         <v>262905</v>
@@ -12654,13 +12687,13 @@
         <v>0</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J268" s="2">
         <v>110036</v>
@@ -12686,13 +12719,13 @@
         <v>2162</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J269" s="2">
         <v>244001</v>
@@ -12718,13 +12751,13 @@
         <v>12050</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J270" s="2">
         <v>131001</v>
@@ -12750,13 +12783,13 @@
         <v>20843</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J271" s="2">
         <v>311001</v>
@@ -12782,13 +12815,13 @@
         <v>5574</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>859</v>
+        <v>1215</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J272" s="2">
         <v>305813</v>
@@ -12814,13 +12847,13 @@
         <v>6625</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J273" s="2">
         <v>301001</v>
@@ -12846,7 +12879,7 @@
         <v>19999</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>131</v>
@@ -12878,13 +12911,13 @@
         <v>6465</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="J275" s="2">
         <v>303701</v>
@@ -12910,13 +12943,13 @@
         <v>1667</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J276" s="2">
         <v>110092</v>
@@ -12942,13 +12975,13 @@
         <v>3392</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="J277" s="2">
         <v>302039</v>
@@ -12974,13 +13007,13 @@
         <v>19785</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J278" s="2">
         <v>331022</v>
@@ -13006,13 +13039,13 @@
         <v>19646</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H279" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J279" s="2">
         <v>211001</v>
@@ -13038,7 +13071,7 @@
         <v>19633</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>129</v>
@@ -13070,13 +13103,13 @@
         <v>0</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="J281" s="2">
         <v>334001</v>
@@ -13102,13 +13135,13 @@
         <v>0</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J282" s="2">
         <v>201009</v>
@@ -13134,13 +13167,13 @@
         <v>2571</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J283" s="2">
         <v>201304</v>
@@ -13166,13 +13199,13 @@
         <v>2139</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J284" s="2">
         <v>110084</v>
@@ -13198,13 +13231,13 @@
         <v>868</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J285" s="2">
         <v>302017</v>
@@ -13230,13 +13263,13 @@
         <v>3117</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J286" s="2">
         <v>396230</v>
@@ -13262,13 +13295,13 @@
         <v>4245</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>859</v>
+        <v>1209</v>
       </c>
       <c r="H287" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J287" s="2">
         <v>110044</v>
@@ -13294,13 +13327,13 @@
         <v>13526</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H288" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J288" s="2">
         <v>201009</v>
@@ -13326,13 +13359,13 @@
         <v>0</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J289" s="2">
         <v>201308</v>
@@ -13358,13 +13391,13 @@
         <v>2340</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J290" s="2">
         <v>324010</v>
@@ -13390,13 +13423,13 @@
         <v>4378</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="J291" s="2">
         <v>201102</v>
@@ -13422,13 +13455,13 @@
         <v>0</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J292" s="2">
         <v>303303</v>
@@ -13454,13 +13487,13 @@
         <v>17936</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J293" s="2">
         <v>302039</v>
@@ -13486,13 +13519,13 @@
         <v>0</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J294" s="2">
         <v>110086</v>
@@ -13518,13 +13551,13 @@
         <v>2070</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J295" s="2">
         <v>226003</v>
@@ -13550,13 +13583,13 @@
         <v>17500</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J296" s="2">
         <v>335523</v>
@@ -13582,7 +13615,7 @@
         <v>15284</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>129</v>
@@ -13614,13 +13647,13 @@
         <v>0</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H298" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J298" s="2">
         <v>302005</v>
@@ -13646,13 +13679,13 @@
         <v>4500</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="J299" s="2">
         <v>311025</v>
@@ -13678,13 +13711,13 @@
         <v>8295</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J300" s="2">
         <v>110031</v>
@@ -13710,13 +13743,13 @@
         <v>4742</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J301" s="2">
         <v>201306</v>
@@ -13742,13 +13775,13 @@
         <v>9971</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J302" s="2">
         <v>176403</v>
@@ -13774,13 +13807,13 @@
         <v>5805</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J303" s="2">
         <v>302022</v>
@@ -13806,13 +13839,13 @@
         <v>5306</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>859</v>
+        <v>1217</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="J304" s="2">
         <v>302013</v>
@@ -13838,13 +13871,13 @@
         <v>3367</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J305" s="2">
         <v>133005</v>
@@ -13870,13 +13903,13 @@
         <v>4036</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J306" s="2">
         <v>110046</v>
@@ -13902,13 +13935,13 @@
         <v>861</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H307" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J307" s="2">
         <v>284403</v>
@@ -13934,13 +13967,13 @@
         <v>7999</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J308" s="2">
         <v>210427</v>
@@ -13966,13 +13999,13 @@
         <v>2972</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J309" s="2">
         <v>110037</v>
@@ -13998,13 +14031,13 @@
         <v>12996</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J310" s="2">
         <v>303503</v>
@@ -14030,13 +14063,13 @@
         <v>3789</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>859</v>
+        <v>1214</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J311" s="2">
         <v>201009</v>
@@ -14062,7 +14095,7 @@
         <v>11609</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>131</v>
@@ -14094,13 +14127,13 @@
         <v>3412</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J313" s="2">
         <v>110091</v>
@@ -14126,13 +14159,13 @@
         <v>5464</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J314" s="2">
         <v>302039</v>
@@ -14158,13 +14191,13 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H315" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J315" s="2">
         <v>302017</v>
@@ -14190,13 +14223,13 @@
         <v>15299</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J316" s="2">
         <v>176028</v>
@@ -14222,13 +14255,13 @@
         <v>3202</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J317" s="2">
         <v>327801</v>
@@ -14254,13 +14287,13 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J318" s="2">
         <v>322216</v>
@@ -14286,13 +14319,13 @@
         <v>0</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J319" s="2">
         <v>302012</v>
@@ -14318,7 +14351,7 @@
         <v>15000</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>129</v>
@@ -14350,7 +14383,7 @@
         <v>4064</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>131</v>
@@ -14382,13 +14415,13 @@
         <v>2142</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J322" s="2">
         <v>121005</v>
@@ -14414,13 +14447,13 @@
         <v>5148</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J323" s="2">
         <v>110071</v>
@@ -14446,13 +14479,13 @@
         <v>5184</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J324" s="2">
         <v>124001</v>
@@ -14478,13 +14511,13 @@
         <v>4057</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J325" s="2">
         <v>110075</v>
@@ -14510,13 +14543,13 @@
         <v>0</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>859</v>
+        <v>1211</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J326" s="2">
         <v>121005</v>
@@ -14542,13 +14575,13 @@
         <v>5150</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J327" s="2">
         <v>110096</v>
@@ -14574,13 +14607,13 @@
         <v>14990</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J328" s="2">
         <v>323613</v>
@@ -14606,13 +14639,13 @@
         <v>2420</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J329" s="2">
         <v>302033</v>
@@ -14638,13 +14671,13 @@
         <v>0</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J330" s="2">
         <v>335039</v>
@@ -14670,13 +14703,13 @@
         <v>0</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J331" s="2">
         <v>341503</v>
@@ -14702,13 +14735,13 @@
         <v>6425</v>
       </c>
       <c r="G332" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="J332" s="2">
         <v>122009</v>
@@ -14734,13 +14767,13 @@
         <v>7883</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J333" s="2">
         <v>203202</v>
@@ -14766,13 +14799,13 @@
         <v>14963</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J334" s="2">
         <v>208001</v>
@@ -14798,13 +14831,13 @@
         <v>5435</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J335" s="2">
         <v>226010</v>
@@ -14830,13 +14863,13 @@
         <v>0</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>859</v>
+        <v>1212</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J336" s="2">
         <v>110046</v>
@@ -14862,13 +14895,13 @@
         <v>0</v>
       </c>
       <c r="G337" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J337" s="2">
         <v>261206</v>
@@ -14894,13 +14927,13 @@
         <v>1772</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J338" s="2">
         <v>250001</v>
@@ -14926,13 +14959,13 @@
         <v>0</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H339" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J339" s="2">
         <v>201309</v>
@@ -14958,13 +14991,13 @@
         <v>0</v>
       </c>
       <c r="G340" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J340" s="2">
         <v>342005</v>
@@ -14990,13 +15023,13 @@
         <v>14935</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J341" s="2">
         <v>342001</v>
@@ -15022,13 +15055,13 @@
         <v>14920</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="J342" s="2">
         <v>302021</v>
@@ -15054,13 +15087,13 @@
         <v>6459</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J343" s="2">
         <v>110094</v>
@@ -15086,13 +15119,13 @@
         <v>4544</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J344" s="2">
         <v>176023</v>
@@ -15118,13 +15151,13 @@
         <v>3883</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J345" s="2">
         <v>281403</v>
@@ -15150,13 +15183,13 @@
         <v>13395</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>859</v>
+        <v>1212</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J346" s="2">
         <v>201306</v>
@@ -15182,13 +15215,13 @@
         <v>14856</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J347" s="2">
         <v>331022</v>
@@ -15214,7 +15247,7 @@
         <v>14847</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>859</v>
+        <v>1211</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>131</v>
@@ -15246,13 +15279,13 @@
         <v>0</v>
       </c>
       <c r="G349" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H349" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J349" s="2">
         <v>334302</v>
@@ -15278,13 +15311,13 @@
         <v>0</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H350" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J350" s="2">
         <v>305207</v>
@@ -15310,13 +15343,13 @@
         <v>3000</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H351" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J351" s="2">
         <v>303003</v>
@@ -15342,13 +15375,13 @@
         <v>2548</v>
       </c>
       <c r="G352" s="5" t="s">
-        <v>859</v>
+        <v>1208</v>
       </c>
       <c r="H352" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J352" s="2">
         <v>122108</v>
@@ -15374,13 +15407,13 @@
         <v>2587</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J353" s="2">
         <v>132103</v>
@@ -15406,13 +15439,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H354" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J354" s="2">
         <v>302006</v>
@@ -15438,7 +15471,7 @@
         <v>10953</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>131</v>
@@ -15470,13 +15503,13 @@
         <v>3733</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H356" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J356" s="2">
         <v>342001</v>
@@ -15502,13 +15535,13 @@
         <v>1764</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J357" s="2">
         <v>281403</v>
@@ -15534,13 +15567,13 @@
         <v>3764</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J358" s="2">
         <v>342601</v>
@@ -15566,13 +15599,13 @@
         <v>13871</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H359" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J359" s="2">
         <v>303305</v>
@@ -15598,13 +15631,13 @@
         <v>8138</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J360" s="2">
         <v>110019</v>
@@ -15630,13 +15663,13 @@
         <v>1574</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J361" s="2">
         <v>530024</v>
@@ -15662,13 +15695,13 @@
         <v>1518</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H362" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J362" s="2">
         <v>333025</v>
@@ -15694,13 +15727,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H363" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J363" s="2">
         <v>445211</v>
@@ -15726,13 +15759,13 @@
         <v>2500</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J364" s="2">
         <v>205267</v>
@@ -15758,13 +15791,13 @@
         <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H365" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J365" s="2">
         <v>208015</v>
@@ -15790,13 +15823,13 @@
         <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H366" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J366" s="2">
         <v>302015</v>
@@ -15822,13 +15855,13 @@
         <v>5630</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>859</v>
+        <v>1207</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J367" s="2">
         <v>110092</v>
@@ -15854,13 +15887,13 @@
         <v>1096</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J368" s="2">
         <v>303121</v>
@@ -15886,13 +15919,13 @@
         <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J369" s="2">
         <v>211004</v>
@@ -15918,13 +15951,13 @@
         <v>5600</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>859</v>
+        <v>1210</v>
       </c>
       <c r="H370" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J370" s="2">
         <v>249407</v>
@@ -15950,13 +15983,13 @@
         <v>10316</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H371" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J371" s="2">
         <v>302028</v>
@@ -15982,13 +16015,13 @@
         <v>353</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J372" s="2">
         <v>273303</v>
@@ -16014,13 +16047,13 @@
         <v>1271</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H373" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J373" s="2">
         <v>205302</v>
@@ -16046,13 +16079,13 @@
         <v>2429</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H374" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J374" s="2">
         <v>322240</v>
@@ -16078,13 +16111,13 @@
         <v>2355</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J375" s="2">
         <v>263139</v>
@@ -16110,13 +16143,13 @@
         <v>0</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J376" s="2">
         <v>302022</v>
@@ -16142,13 +16175,13 @@
         <v>1659</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J377" s="2">
         <v>302033</v>
@@ -16174,13 +16207,13 @@
         <v>1491</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="J378" s="2">
         <v>303303</v>
@@ -16206,13 +16239,13 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J379" s="2">
         <v>201310</v>
@@ -16238,13 +16271,13 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J380" s="2">
         <v>282001</v>
@@ -16270,13 +16303,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J381" s="2">
         <v>276001</v>
@@ -16302,13 +16335,13 @@
         <v>943</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H382" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J382" s="2">
         <v>125047</v>
@@ -16334,13 +16367,13 @@
         <v>9973</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H383" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J383" s="2">
         <v>303303</v>
@@ -16366,13 +16399,13 @@
         <v>3105</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J384" s="2">
         <v>302012</v>
@@ -16398,13 +16431,13 @@
         <v>4618</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J385" s="2">
         <v>302022</v>
@@ -16430,13 +16463,13 @@
         <v>3385</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J386" s="2">
         <v>341512</v>
@@ -16462,7 +16495,7 @@
         <v>5589</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>129</v>
@@ -16494,7 +16527,7 @@
         <v>10344</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H388" s="2" t="s">
         <v>129</v>
@@ -16526,7 +16559,7 @@
         <v>4618</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>859</v>
+        <v>1218</v>
       </c>
       <c r="H389" s="2" t="s">
         <v>129</v>
@@ -16540,10 +16573,10 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C390" s="2">
         <v>7987410858</v>
@@ -16558,13 +16591,13 @@
         <v>3644</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="J390" s="2">
         <v>487881</v>
@@ -16572,10 +16605,10 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C391" s="2">
         <v>6350228725</v>
@@ -16590,13 +16623,13 @@
         <v>13083</v>
       </c>
       <c r="G391" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H391" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J391" s="2">
         <v>342001</v>
@@ -16604,10 +16637,10 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C392" s="2">
         <v>8318345660</v>
@@ -16622,13 +16655,13 @@
         <v>9320</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H392" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J392" s="2">
         <v>230404</v>
@@ -16636,10 +16669,10 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C393" s="2">
         <v>9956070872</v>
@@ -16654,13 +16687,13 @@
         <v>0</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H393" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J393" s="2">
         <v>221502</v>
@@ -16668,10 +16701,10 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C394" s="2">
         <v>8117047273</v>
@@ -16686,13 +16719,13 @@
         <v>3386</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J394" s="2">
         <v>754225</v>
@@ -16700,10 +16733,10 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C395" s="2">
         <v>7209461974</v>
@@ -16718,13 +16751,13 @@
         <v>9253</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J395" s="2">
         <v>805126</v>
@@ -16732,10 +16765,10 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C396" s="2">
         <v>9554956197</v>
@@ -16750,13 +16783,13 @@
         <v>3266</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="H396" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J396" s="2">
         <v>277211</v>
